--- a/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>62727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48924</v>
+        <v>48040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77591</v>
+        <v>79957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2142209187182241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1670801134048242</v>
+        <v>0.1640619851913576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2649841108072454</v>
+        <v>0.2730629504507471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -762,19 +762,19 @@
         <v>54831</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42763</v>
+        <v>42480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69332</v>
+        <v>68679</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1899215473036006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1481212878790407</v>
+        <v>0.1471412791957326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2401499282663292</v>
+        <v>0.2378870621894745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -783,19 +783,19 @@
         <v>117558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98509</v>
+        <v>98584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136792</v>
+        <v>136339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2021571507973101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1694002930662456</v>
+        <v>0.1695291233626225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.235232658373383</v>
+        <v>0.2344538575596276</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1289</v>
+        <v>951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12343</v>
+        <v>11818</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01522940325711039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004401992115188141</v>
+        <v>0.003246398336010808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04215349404995024</v>
+        <v>0.04036056841718766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>3832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8712</v>
+        <v>9520</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01327365888681989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003174593220810318</v>
+        <v>0.003204338475769205</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03017607403075831</v>
+        <v>0.0329742322270675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>8292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3677</v>
+        <v>3696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16407</v>
+        <v>15691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01425844619845907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006322894774673684</v>
+        <v>0.006355728148440341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02821490501949103</v>
+        <v>0.0269821197131547</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>10531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5452</v>
+        <v>5389</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18668</v>
+        <v>19837</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03596625637136469</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01861899741462279</v>
+        <v>0.01840386381805708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06375286218547681</v>
+        <v>0.0677454665096543</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -904,19 +904,19 @@
         <v>9635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4612</v>
+        <v>5015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16945</v>
+        <v>16648</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03337497195667725</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01597333625850554</v>
+        <v>0.0173698133766751</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05869409107555169</v>
+        <v>0.05766618069968647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -925,19 +925,19 @@
         <v>20167</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13121</v>
+        <v>12329</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30534</v>
+        <v>30523</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03467977643480724</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02256299732022228</v>
+        <v>0.02120169358885105</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05250758024695688</v>
+        <v>0.05248888813481407</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>10166</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4591</v>
+        <v>4633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18223</v>
+        <v>18540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03471879617823508</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0156788046919782</v>
+        <v>0.01582394667096552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06223508078329951</v>
+        <v>0.06331729196106355</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -975,19 +975,19 @@
         <v>9192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4182</v>
+        <v>4341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17297</v>
+        <v>18320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03184024061350191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01448708539551272</v>
+        <v>0.01503728402834277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05991244565803455</v>
+        <v>0.06345563229844794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -996,19 +996,19 @@
         <v>19359</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11502</v>
+        <v>11623</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30641</v>
+        <v>31005</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03328969640080224</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01977899683382403</v>
+        <v>0.01998746370283591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05269076677718214</v>
+        <v>0.05331664692493757</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>204931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187974</v>
+        <v>188097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220300</v>
+        <v>221725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6998646254750658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6419536922886936</v>
+        <v>0.6423754271103203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7523527858367809</v>
+        <v>0.7572200463894133</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -1046,19 +1046,19 @@
         <v>211212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194904</v>
+        <v>193994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>224666</v>
+        <v>225181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7315895812394003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6751008603355726</v>
+        <v>0.671948800511975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7781913074964755</v>
+        <v>0.7799731254828375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>386</v>
@@ -1067,19 +1067,19 @@
         <v>416143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>394466</v>
+        <v>393892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>437502</v>
+        <v>435255</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7156149301686213</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6783383128117676</v>
+        <v>0.6773521646039804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7523451356374167</v>
+        <v>0.7484806999519069</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>74644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61340</v>
+        <v>59394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90603</v>
+        <v>91436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1490376079250426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1224747551750774</v>
+        <v>0.1185878750252118</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1809013511057233</v>
+        <v>0.1825662682077833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1192,19 +1192,19 @@
         <v>74053</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59168</v>
+        <v>58916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91138</v>
+        <v>90492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1421054618055815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1135417660872759</v>
+        <v>0.1130572081220823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1748900160305099</v>
+        <v>0.1736515310063516</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -1213,19 +1213,19 @@
         <v>148697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129095</v>
+        <v>123789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172919</v>
+        <v>170990</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.145502770968597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1263216773445668</v>
+        <v>0.1211299636894192</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1692039332431401</v>
+        <v>0.1673165447065675</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>7209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3008</v>
+        <v>3049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14151</v>
+        <v>14529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01439388570585468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006005928493466363</v>
+        <v>0.006087693976962641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02825383242704574</v>
+        <v>0.02900960872342041</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1263,19 +1263,19 @@
         <v>4919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10924</v>
+        <v>10923</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009438687605096014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003739556483457191</v>
+        <v>0.003761249760296291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02096286252624961</v>
+        <v>0.02096141416200762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>12128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6883</v>
+        <v>6093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20371</v>
+        <v>19606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01186713322960531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006735273870612091</v>
+        <v>0.005961690031796048</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0199333808533147</v>
+        <v>0.01918461908748346</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>9222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4170</v>
+        <v>4107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17311</v>
+        <v>17513</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01841398874538916</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008325585605361537</v>
+        <v>0.008200675778289165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03456456840830729</v>
+        <v>0.03496754332131953</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1334,19 +1334,19 @@
         <v>4313</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1081</v>
+        <v>1311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10362</v>
+        <v>10794</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008276194947276591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002074783183135778</v>
+        <v>0.002516150228439605</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01988452379113001</v>
+        <v>0.02071330417136278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>13535</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7174</v>
+        <v>7193</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23807</v>
+        <v>23292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01324452930860812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007020144718424769</v>
+        <v>0.00703835556242113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02329538849542371</v>
+        <v>0.02279153518978064</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>10121</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5422</v>
+        <v>5088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18262</v>
+        <v>17988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02020894854441398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01082678461627373</v>
+        <v>0.0101594616463223</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03646318268101396</v>
+        <v>0.03591549250551329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1405,19 +1405,19 @@
         <v>5033</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1974</v>
+        <v>1958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11560</v>
+        <v>11358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009658784246351828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003788855020259572</v>
+        <v>0.003756682362681619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02218416268600198</v>
+        <v>0.02179515969800235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1426,19 +1426,19 @@
         <v>15155</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8962</v>
+        <v>8857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23750</v>
+        <v>24882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01482921332032985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008769055791561488</v>
+        <v>0.008666947190412898</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02323975004819371</v>
+        <v>0.02434752165831929</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>399643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>381263</v>
+        <v>381309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>416667</v>
+        <v>418520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7979455690792996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7612478434436971</v>
+        <v>0.7613389573670216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8319356238004197</v>
+        <v>0.8356368979633854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>397</v>
@@ -1476,19 +1476,19 @@
         <v>432797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>414705</v>
+        <v>414730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447999</v>
+        <v>449116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8305208713956941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7958028860648874</v>
+        <v>0.7958507034401182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8596923944381657</v>
+        <v>0.8618373240161846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>774</v>
@@ -1497,19 +1497,19 @@
         <v>832439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>805321</v>
+        <v>805961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>855277</v>
+        <v>861164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8145563531728598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7880208313892736</v>
+        <v>0.78864730474566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8369034096837668</v>
+        <v>0.8426644853657699</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>61602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48387</v>
+        <v>47767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76786</v>
+        <v>75874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1933732381744238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1518904584812246</v>
+        <v>0.1499437096988238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2410378389031596</v>
+        <v>0.2381732554290289</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1622,19 +1622,19 @@
         <v>47944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36581</v>
+        <v>36090</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63012</v>
+        <v>61884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1425602964245207</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1087718353338824</v>
+        <v>0.1073110638539443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.187362130709487</v>
+        <v>0.1840086925075518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -1643,19 +1643,19 @@
         <v>109546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92055</v>
+        <v>92002</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129316</v>
+        <v>130561</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1672783714689603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1405688505432804</v>
+        <v>0.1404887975092496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1974676240476638</v>
+        <v>0.1993686495232816</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>12185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6471</v>
+        <v>7030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19824</v>
+        <v>19823</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03824906989909312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02031414589488709</v>
+        <v>0.02206664219571838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06222930174687832</v>
+        <v>0.06222623489581448</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1693,19 +1693,19 @@
         <v>14387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7881</v>
+        <v>8456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23088</v>
+        <v>23894</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04278003942903497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0234331773425607</v>
+        <v>0.02514334925510575</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06864997566756331</v>
+        <v>0.07104734004760004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1714,19 +1714,19 @@
         <v>26572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17692</v>
+        <v>18212</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37893</v>
+        <v>37890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04057593864273509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02701556746523255</v>
+        <v>0.02780979841209453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05786274986916824</v>
+        <v>0.05785874255686875</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>3661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>869</v>
+        <v>931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9186</v>
+        <v>9397</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01149217829104271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002729203074216325</v>
+        <v>0.002922662189505624</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02883553638390336</v>
+        <v>0.02949944046084935</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>6875</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2942</v>
+        <v>2937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15966</v>
+        <v>15557</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02044301891171523</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008749031570275659</v>
+        <v>0.00873158327127554</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04747304853782603</v>
+        <v>0.04625825225167535</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1785,19 +1785,19 @@
         <v>10536</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5546</v>
+        <v>4901</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20266</v>
+        <v>19243</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01608886143621297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008469368049021748</v>
+        <v>0.007484295126598184</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0309458519629943</v>
+        <v>0.02938478416350782</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>6287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2680</v>
+        <v>2694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12015</v>
+        <v>12696</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01973419084073506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008413498114423832</v>
+        <v>0.008456863310172747</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03771710575878236</v>
+        <v>0.0398525180781577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1835,19 +1835,19 @@
         <v>3886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9793</v>
+        <v>9724</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0115555343887177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003071031229272635</v>
+        <v>0.003034538459691732</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02911932403009255</v>
+        <v>0.02891475321650045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1856,19 +1856,19 @@
         <v>10173</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5463</v>
+        <v>5380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18517</v>
+        <v>17783</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01553406105892452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008342189193179658</v>
+        <v>0.008214887366642415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02827491929576954</v>
+        <v>0.0271552106301079</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>234831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217936</v>
+        <v>218631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247972</v>
+        <v>249448</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7371513227947053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6841167835984723</v>
+        <v>0.686300572055231</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.778403096928467</v>
+        <v>0.7830353819297485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1906,19 +1906,19 @@
         <v>263216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246253</v>
+        <v>247046</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277539</v>
+        <v>277616</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7826611108460114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.732223547322443</v>
+        <v>0.7345791820138124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8252488801050391</v>
+        <v>0.8254779148867274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>506</v>
@@ -1927,19 +1927,19 @@
         <v>498047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>476422</v>
+        <v>473455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517369</v>
+        <v>516172</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7605227673931672</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7275019378057187</v>
+        <v>0.7229711448754601</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7900286300657795</v>
+        <v>0.7882010894794378</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>53802</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41644</v>
+        <v>40990</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68756</v>
+        <v>69024</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1454257746355954</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1125621284158967</v>
+        <v>0.1107942267033649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1858461157728147</v>
+        <v>0.1865691583403476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2052,19 +2052,19 @@
         <v>43908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32230</v>
+        <v>33311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57956</v>
+        <v>58497</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1133751360762136</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08322028806149802</v>
+        <v>0.08601138753665633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1496468021672543</v>
+        <v>0.1510458560819165</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>92</v>
@@ -2073,19 +2073,19 @@
         <v>97711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81010</v>
+        <v>79124</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118715</v>
+        <v>117249</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1290339401399939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1069793058436026</v>
+        <v>0.1044886009029177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1567712664858651</v>
+        <v>0.1548354615953579</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>2937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8060</v>
+        <v>7976</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007938754104792186</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002574689788814424</v>
+        <v>0.002579901086926059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02178456729488817</v>
+        <v>0.02156005255530495</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2123,19 +2123,19 @@
         <v>4747</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1827</v>
+        <v>1840</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10229</v>
+        <v>11538</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01225636464676524</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004717627677399352</v>
+        <v>0.004750828608311277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02641324222773399</v>
+        <v>0.02979120749050215</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2144,19 +2144,19 @@
         <v>7684</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2971</v>
+        <v>3716</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15897</v>
+        <v>15282</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01014693342981128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003923682801239897</v>
+        <v>0.004906903556033741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02099276012597801</v>
+        <v>0.02018150516522923</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>7131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14496</v>
+        <v>14688</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01927513905757921</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007756789997469298</v>
+        <v>0.007760512361406097</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0391815599918748</v>
+        <v>0.03970091751313657</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2194,19 +2194,19 @@
         <v>7449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3151</v>
+        <v>3021</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15821</v>
+        <v>14116</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01923483687106306</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008135284661279111</v>
+        <v>0.007801227458756587</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04085177548903245</v>
+        <v>0.03644926808029788</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2215,19 +2215,19 @@
         <v>14580</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7898</v>
+        <v>7767</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23914</v>
+        <v>24032</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01925452708849286</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01042981190213215</v>
+        <v>0.01025628654489623</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03157980180669604</v>
+        <v>0.03173585074114724</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>8109</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3849</v>
+        <v>3967</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15840</v>
+        <v>15426</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02191865484990556</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0104029110635525</v>
+        <v>0.01072248861769671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04281499563794649</v>
+        <v>0.04169556424037757</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2265,19 +2265,19 @@
         <v>8624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4225</v>
+        <v>3664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16425</v>
+        <v>16060</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02226806850584958</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01090899174818549</v>
+        <v>0.00945992699961096</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0424111141492562</v>
+        <v>0.04146962243942091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2286,19 +2286,19 @@
         <v>16733</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9670</v>
+        <v>10090</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27775</v>
+        <v>27447</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02209735739925183</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01276989119464746</v>
+        <v>0.01332459443354011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03667892827313597</v>
+        <v>0.03624528651037749</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>297984</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>281201</v>
+        <v>282523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>312226</v>
+        <v>311265</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8054416773521277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7600779222240606</v>
+        <v>0.7636492344227178</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8439359686262763</v>
+        <v>0.8413397640000131</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>296</v>
@@ -2336,19 +2336,19 @@
         <v>322555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>307029</v>
+        <v>306206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>336764</v>
+        <v>335982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8328655939001085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7927768295007672</v>
+        <v>0.7906528430665521</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8695553843610854</v>
+        <v>0.8675367927045258</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>583</v>
@@ -2357,19 +2357,19 @@
         <v>620539</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>599091</v>
+        <v>596603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>640633</v>
+        <v>641122</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8194672419424501</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7911434947752506</v>
+        <v>0.7878572681862704</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8460021330566249</v>
+        <v>0.8466483579382232</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>17638</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10424</v>
+        <v>10755</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26122</v>
+        <v>27837</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08350701144138123</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04935121949960692</v>
+        <v>0.05091809470457784</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1236705499639257</v>
+        <v>0.1317921191700287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -2482,19 +2482,19 @@
         <v>11294</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5961</v>
+        <v>6046</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19539</v>
+        <v>18944</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05166670339325183</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02726868602135853</v>
+        <v>0.02765919479639686</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08938991733198634</v>
+        <v>0.0866647073099286</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -2503,19 +2503,19 @@
         <v>28932</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20132</v>
+        <v>19708</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40536</v>
+        <v>40728</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06731401958568729</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0468392506152872</v>
+        <v>0.04585287486607405</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09431198189541644</v>
+        <v>0.09475867253761576</v>
       </c>
     </row>
     <row r="29">
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6345</v>
+        <v>6830</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00931128457440852</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03003907352239863</v>
+        <v>0.03233410550346227</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6241</v>
+        <v>6463</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008360851089559446</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02855142042710179</v>
+        <v>0.02956620977766158</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2574,19 +2574,19 @@
         <v>3794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8802</v>
+        <v>9265</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008827923620228178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002209053597033645</v>
+        <v>0.002227976607565468</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02047953598037508</v>
+        <v>0.02155499571393936</v>
       </c>
     </row>
     <row r="30">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6111</v>
+        <v>6207</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009639816986605782</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02893093242617377</v>
+        <v>0.02938609685305418</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4208</v>
+        <v>4377</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00397048395287218</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0192496872977375</v>
+        <v>0.02002384752025268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2645,19 +2645,19 @@
         <v>2904</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7779</v>
+        <v>7828</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006756570269780811</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001994117830327213</v>
+        <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01809845289656681</v>
+        <v>0.01821362901048512</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>5528</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1996</v>
+        <v>2047</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13040</v>
+        <v>12751</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02617222423912475</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009448726988999368</v>
+        <v>0.009689504402395285</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06173707810102153</v>
+        <v>0.06036677884696069</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2695,19 +2695,19 @@
         <v>2821</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7585</v>
+        <v>7578</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01290741580934634</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004028979150545282</v>
+        <v>0.00403939170165435</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03470231226950674</v>
+        <v>0.03466686553867566</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2716,19 +2716,19 @@
         <v>8350</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3733</v>
+        <v>3904</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15915</v>
+        <v>16206</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01942615461737179</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008684314280846565</v>
+        <v>0.009083044315890715</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03702747931094492</v>
+        <v>0.0377061180502036</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>184052</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>173505</v>
+        <v>172795</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>192511</v>
+        <v>191966</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8713696627584797</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8214382293596698</v>
+        <v>0.818078519805794</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9114191276108228</v>
+        <v>0.908840633299245</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>205</v>
@@ -2766,19 +2766,19 @@
         <v>201776</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>192369</v>
+        <v>193330</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>208366</v>
+        <v>208563</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9230945457549702</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.880058212135765</v>
+        <v>0.8844551596567756</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9532390560971903</v>
+        <v>0.9541438450929214</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>390</v>
@@ -2787,19 +2787,19 @@
         <v>385828</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>373766</v>
+        <v>371089</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>397230</v>
+        <v>396653</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8976753319069319</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.869610891618999</v>
+        <v>0.8633834168681358</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9242023019328561</v>
+        <v>0.9228618977316929</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>94028</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77467</v>
+        <v>80748</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>109658</v>
+        <v>111456</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3573552884742524</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2944141088497957</v>
+        <v>0.3068844282558121</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4167550554382461</v>
+        <v>0.4235906392101034</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>126</v>
@@ -2912,19 +2912,19 @@
         <v>132539</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>114694</v>
+        <v>115197</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>148692</v>
+        <v>148680</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4852862816850243</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4199467967946606</v>
+        <v>0.4217907138655333</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5444297640364126</v>
+        <v>0.5443852747017884</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>219</v>
@@ -2933,19 +2933,19 @@
         <v>226567</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>205323</v>
+        <v>204574</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>250542</v>
+        <v>250905</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4225126874117797</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3828957629128392</v>
+        <v>0.3814992850940347</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4672212384855307</v>
+        <v>0.4678989719702763</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>14161</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7547</v>
+        <v>7765</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23639</v>
+        <v>23210</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05382041365755973</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02868165096655054</v>
+        <v>0.02950921121708393</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08983822956926812</v>
+        <v>0.08821147014398095</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2983,19 +2983,19 @@
         <v>4856</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1931</v>
+        <v>1898</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10722</v>
+        <v>10787</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01777870311716702</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007071768291319462</v>
+        <v>0.006947917337021223</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03925682779591377</v>
+        <v>0.0394956936787439</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>18</v>
@@ -3004,19 +3004,19 @@
         <v>19017</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11653</v>
+        <v>11103</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>29959</v>
+        <v>28864</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03546376642820393</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02173024614663222</v>
+        <v>0.02070486386117902</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.055869218290414</v>
+        <v>0.0538260499240265</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>12715</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7453</v>
+        <v>6892</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20618</v>
+        <v>20405</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04832228436239003</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02832699350291547</v>
+        <v>0.02619136762644132</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07835831140675595</v>
+        <v>0.07754775396599387</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -3054,19 +3054,19 @@
         <v>3965</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10378</v>
+        <v>9472</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01451951582916851</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003579252233058675</v>
+        <v>0.003600009890954588</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03799688906637177</v>
+        <v>0.03467980783750692</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>17</v>
@@ -3075,19 +3075,19 @@
         <v>16680</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10371</v>
+        <v>10127</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25161</v>
+        <v>25938</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03110596782146164</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01934079565017485</v>
+        <v>0.01888587455595926</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04692155696046565</v>
+        <v>0.04837051626314778</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>6769</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2875</v>
+        <v>2974</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15178</v>
+        <v>14462</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02572503355993</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01092494819895541</v>
+        <v>0.01130442560548792</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0576845190345955</v>
+        <v>0.05496163028659357</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -3125,19 +3125,19 @@
         <v>3000</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8980</v>
+        <v>8297</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01098280345179758</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003463145614174295</v>
+        <v>0.003438421565559419</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03288042786614937</v>
+        <v>0.03038065960762142</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -3146,19 +3146,19 @@
         <v>9768</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4940</v>
+        <v>4883</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18345</v>
+        <v>17954</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01821656868932717</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009212558009852084</v>
+        <v>0.009105682751180809</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03421000325825903</v>
+        <v>0.03348127337259411</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>135450</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>119374</v>
+        <v>118819</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>151836</v>
+        <v>150639</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5147769799458679</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4536818568374787</v>
+        <v>0.4515714897474867</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5770530993360689</v>
+        <v>0.5725042491974918</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>125</v>
@@ -3196,19 +3196,19 @@
         <v>128755</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>112127</v>
+        <v>113397</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>145125</v>
+        <v>145729</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4714326959168426</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.41055011802263</v>
+        <v>0.4151991087532063</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5313699605300338</v>
+        <v>0.5335796708375655</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>259</v>
@@ -3217,19 +3217,19 @@
         <v>264205</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>238885</v>
+        <v>241215</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>284549</v>
+        <v>287157</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4927010096492276</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4454840756072154</v>
+        <v>0.44982865382325</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5306390043519427</v>
+        <v>0.5355036622101638</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>62211</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>47932</v>
+        <v>48188</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>81045</v>
+        <v>79515</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09475398768459137</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07300545794740564</v>
+        <v>0.07339560380714462</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1234392977268684</v>
+        <v>0.1211088605595514</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>42</v>
@@ -3342,19 +3342,19 @@
         <v>45246</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33674</v>
+        <v>33408</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>60902</v>
+        <v>60895</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06597178646152461</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04909872477393268</v>
+        <v>0.04871081823367536</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08879982320289907</v>
+        <v>0.08878938577533436</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>97</v>
@@ -3363,19 +3363,19 @@
         <v>107457</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>90081</v>
+        <v>87367</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>132439</v>
+        <v>128198</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08004900365492329</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06710445074069922</v>
+        <v>0.06508316955655805</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09865863277345144</v>
+        <v>0.09549963514557602</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>14086</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7285</v>
+        <v>7873</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22651</v>
+        <v>24155</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02145505709144842</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01109597924285836</v>
+        <v>0.01199056881800099</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03450006527233395</v>
+        <v>0.03678984500056481</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3413,19 +3413,19 @@
         <v>4016</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10048</v>
+        <v>10086</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005856293016036049</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001606172074994424</v>
+        <v>0.001608954658823209</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01465100530907689</v>
+        <v>0.01470634511707451</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>17</v>
@@ -3434,19 +3434,19 @@
         <v>18103</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10674</v>
+        <v>11337</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>28046</v>
+        <v>27945</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01348556320758006</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007951585115679654</v>
+        <v>0.008445559066020715</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02089241541720182</v>
+        <v>0.02081716145239929</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>9799</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4763</v>
+        <v>4227</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19595</v>
+        <v>18665</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0149241046814763</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007255208328673316</v>
+        <v>0.00643858589078731</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0298445110040623</v>
+        <v>0.02842817363918564</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>12</v>
@@ -3484,19 +3484,19 @@
         <v>11597</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6267</v>
+        <v>6099</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>19678</v>
+        <v>19820</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01690871210174994</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.009138457295437542</v>
+        <v>0.00889329794922138</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02869130358010222</v>
+        <v>0.02889944403716466</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>20</v>
@@ -3505,19 +3505,19 @@
         <v>21395</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>13640</v>
+        <v>13826</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>34533</v>
+        <v>32758</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01593805146734257</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01016063810599092</v>
+        <v>0.01029912991492893</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02572466711507246</v>
+        <v>0.02440264144275163</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>14925</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8485</v>
+        <v>7981</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>25113</v>
+        <v>24082</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02273247579042895</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01292366864097487</v>
+        <v>0.01215544577406757</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03824916066147577</v>
+        <v>0.03667990369255882</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>13</v>
@@ -3555,19 +3555,19 @@
         <v>13367</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7006</v>
+        <v>7543</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>22917</v>
+        <v>21657</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01949015316198125</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01021453442961153</v>
+        <v>0.01099755267812115</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03341400805599098</v>
+        <v>0.03157724906520569</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>27</v>
@@ -3576,19 +3576,19 @@
         <v>28292</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>18885</v>
+        <v>18517</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>40184</v>
+        <v>40073</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02107595542560903</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01406819743719483</v>
+        <v>0.01379402191334335</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02993452153921726</v>
+        <v>0.02985208389762565</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>555536</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>533413</v>
+        <v>533485</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>573069</v>
+        <v>571649</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.846134374752055</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8124390550072875</v>
+        <v>0.8125477705263527</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8728390166299845</v>
+        <v>0.8706757174585591</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>570</v>
@@ -3626,19 +3626,19 @@
         <v>611611</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>594576</v>
+        <v>592295</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>627060</v>
+        <v>627117</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8917730552587082</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8669345452515895</v>
+        <v>0.863608947000987</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9142981652694029</v>
+        <v>0.9143823455691072</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1060</v>
@@ -3647,19 +3647,19 @@
         <v>1167147</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1139356</v>
+        <v>1141559</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1190396</v>
+        <v>1192613</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8694514262445451</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8487488754859273</v>
+        <v>0.8503900394358971</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8867701179326456</v>
+        <v>0.888421798326994</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>48601</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>35293</v>
+        <v>35468</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63919</v>
+        <v>64086</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0624986280598333</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04538532405909432</v>
+        <v>0.04561055284486756</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08219682015210879</v>
+        <v>0.08241134126803154</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>44</v>
@@ -3772,19 +3772,19 @@
         <v>45649</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>33829</v>
+        <v>34349</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>62582</v>
+        <v>60229</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05551651461259469</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0411420831114112</v>
+        <v>0.04177395364919069</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07610946531399501</v>
+        <v>0.07324823625605274</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>88</v>
@@ -3793,19 +3793,19 @@
         <v>94250</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>76946</v>
+        <v>76494</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>114794</v>
+        <v>114934</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.05891018912812035</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04809435008401324</v>
+        <v>0.04781188367422606</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07175112293530712</v>
+        <v>0.07183869790929412</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>7764</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3826</v>
+        <v>3777</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14771</v>
+        <v>15355</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.009983651487059882</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.004919811580756844</v>
+        <v>0.004857355309871311</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01899472966020305</v>
+        <v>0.01974531819145701</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -3843,19 +3843,19 @@
         <v>9676</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4117</v>
+        <v>4586</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>18116</v>
+        <v>18678</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01176712140846545</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.005007333841543664</v>
+        <v>0.005577280710436068</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02203136216287787</v>
+        <v>0.02271507482252395</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>17</v>
@@ -3864,19 +3864,19 @@
         <v>17439</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>11054</v>
+        <v>10790</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>28092</v>
+        <v>26829</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01090026118523686</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006909136246619795</v>
+        <v>0.006744491549458495</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01755899169179986</v>
+        <v>0.01676909091279595</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>15802</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9138</v>
+        <v>9542</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>25763</v>
+        <v>25338</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0203203834453016</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01175086178811169</v>
+        <v>0.01227034938693698</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03313028795451236</v>
+        <v>0.032583360415555</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>9</v>
@@ -3914,19 +3914,19 @@
         <v>9069</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>4153</v>
+        <v>4100</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>16983</v>
+        <v>17143</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01102946882460475</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.005050665932537832</v>
+        <v>0.004986511254879114</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02065451775119862</v>
+        <v>0.02084823478671015</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>24</v>
@@ -3935,19 +3935,19 @@
         <v>24871</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>16206</v>
+        <v>16177</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>37393</v>
+        <v>35937</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01554534219338447</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01012964156112144</v>
+        <v>0.01011161390608375</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02337210299566296</v>
+        <v>0.02246213699140234</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>20763</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>13019</v>
+        <v>12709</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>32237</v>
+        <v>31343</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02670071074818849</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01674225395525616</v>
+        <v>0.01634313108939371</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04145578377501886</v>
+        <v>0.0403061249629307</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>23</v>
@@ -3985,19 +3985,19 @@
         <v>25253</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>16287</v>
+        <v>15947</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>35820</v>
+        <v>37146</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03071140874373065</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0198072301364081</v>
+        <v>0.01939403608014974</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0435633236582038</v>
+        <v>0.04517572860541443</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>42</v>
@@ -4006,19 +4006,19 @@
         <v>46016</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>34279</v>
+        <v>33573</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>61492</v>
+        <v>60403</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.028761998485677</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02142569852739877</v>
+        <v>0.02098464696761368</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03843531580506767</v>
+        <v>0.03775435863532783</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>684702</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>665361</v>
+        <v>666196</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>702388</v>
+        <v>702385</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8804966262596168</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8556243947275796</v>
+        <v>0.8566987033723029</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9032394198800843</v>
+        <v>0.9032361653594984</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>666</v>
@@ -4056,19 +4056,19 @@
         <v>732614</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>713473</v>
+        <v>711054</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>749567</v>
+        <v>749223</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8909754864106044</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8676970811168724</v>
+        <v>0.864755865092289</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9115934522205443</v>
+        <v>0.9111749552180181</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1329</v>
@@ -4077,19 +4077,19 @@
         <v>1417316</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1390307</v>
+        <v>1389017</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1440765</v>
+        <v>1441359</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8858822090075813</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8690005932782821</v>
+        <v>0.8681940144933814</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9005386858136483</v>
+        <v>0.9009102509065638</v>
       </c>
     </row>
     <row r="51">
@@ -4181,19 +4181,19 @@
         <v>475255</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>436578</v>
+        <v>430680</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>518145</v>
+        <v>517694</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1401634233139076</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1287569414017316</v>
+        <v>0.1270173447733508</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1528129039304072</v>
+        <v>0.1526798875362065</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>438</v>
@@ -4202,19 +4202,19 @@
         <v>455464</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>415591</v>
+        <v>415783</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>495076</v>
+        <v>495649</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1289095271850066</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1176241906321838</v>
+        <v>0.1176784391999797</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1401206929824123</v>
+        <v>0.1402829129618302</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>893</v>
@@ -4223,19 +4223,19 @@
         <v>930719</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>873192</v>
+        <v>875367</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>987087</v>
+        <v>986552</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1344206754782551</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1261122588481867</v>
+        <v>0.1264264565689951</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1425617360175419</v>
+        <v>0.1424844163824556</v>
       </c>
     </row>
     <row r="53">
@@ -4252,19 +4252,19 @@
         <v>64769</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>49549</v>
+        <v>49382</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>82070</v>
+        <v>81338</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01910171437433479</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01461306864211259</v>
+        <v>0.01456393147018574</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02420419058133317</v>
+        <v>0.02398852076223888</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>48</v>
@@ -4273,19 +4273,19 @@
         <v>48260</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>36127</v>
+        <v>34483</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>62727</v>
+        <v>62247</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01365899464963064</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0102248783443634</v>
+        <v>0.009759556824849826</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01775360232151287</v>
+        <v>0.01761758294925887</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>111</v>
@@ -4294,19 +4294,19 @@
         <v>113029</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>91955</v>
+        <v>92642</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>136988</v>
+        <v>133624</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01632435028983438</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01328075855974546</v>
+        <v>0.01338004998893881</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01978470371835078</v>
+        <v>0.01929894161067736</v>
       </c>
     </row>
     <row r="54">
@@ -4323,19 +4323,19 @@
         <v>70897</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>54880</v>
+        <v>55884</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>89804</v>
+        <v>89893</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02090919871915262</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01618538314450396</v>
+        <v>0.01648142140622845</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02648536582652931</v>
+        <v>0.02651145254008364</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>53</v>
@@ -4344,19 +4344,19 @@
         <v>53772</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>40004</v>
+        <v>40366</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>70143</v>
+        <v>70390</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01521900003358924</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01132236425016896</v>
+        <v>0.01142469432970365</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01985250900527226</v>
+        <v>0.01992248286467344</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>119</v>
@@ -4365,19 +4365,19 @@
         <v>124669</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>104503</v>
+        <v>103319</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>149294</v>
+        <v>151350</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01800554865772782</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01509307293770774</v>
+        <v>0.01492202836751197</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02156210767568518</v>
+        <v>0.02185902023578619</v>
       </c>
     </row>
     <row r="55">
@@ -4394,19 +4394,19 @@
         <v>82669</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>67283</v>
+        <v>64086</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>104025</v>
+        <v>101619</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02438093043273475</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01984331138510118</v>
+        <v>0.01890029734415693</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03067932461385293</v>
+        <v>0.02996962074355628</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>67</v>
@@ -4415,19 +4415,19 @@
         <v>71177</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>54805</v>
+        <v>55629</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>88323</v>
+        <v>89397</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.0201450819480525</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01551141996902036</v>
+        <v>0.01574464906471879</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.02499792580324435</v>
+        <v>0.02530199479172121</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>145</v>
@@ -4436,19 +4436,19 @@
         <v>153846</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>129635</v>
+        <v>131054</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>178368</v>
+        <v>180583</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02221942037089128</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01872280054769613</v>
+        <v>0.01892777192426605</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02576108111907192</v>
+        <v>0.02608102320916549</v>
       </c>
     </row>
     <row r="56">
@@ -4465,19 +4465,19 @@
         <v>2697129</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2649156</v>
+        <v>2643903</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2742671</v>
+        <v>2743364</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7954447331598703</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7812965153872587</v>
+        <v>0.7797473295469479</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.808876316842323</v>
+        <v>0.8090806995556185</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2721</v>
@@ -4486,19 +4486,19 @@
         <v>2904536</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2857531</v>
+        <v>2856820</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2952907</v>
+        <v>2950393</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.822067396183721</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.808763586552512</v>
+        <v>0.8085625135052059</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.8357577598695347</v>
+        <v>0.8350463813130279</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>5287</v>
@@ -4507,19 +4507,19 @@
         <v>5601664</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5532376</v>
+        <v>5536100</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5667804</v>
+        <v>5659164</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.8090300052032914</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7990229600956436</v>
+        <v>0.7995607903118324</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.818582363119055</v>
+        <v>0.8173345861261162</v>
       </c>
     </row>
     <row r="57">
